--- a/biology/Médecine/Victor_Galippe/Victor_Galippe.xlsx
+++ b/biology/Médecine/Victor_Galippe/Victor_Galippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Louis Victor Galippe (né à Grandvilliers le 29 mai 1848 et mort à  Auteuil en  février 1922 ) est un microbiologiste français et un  médecin. Il a mené des expériences sur la microbiologie dans la vie humaine et  publié des notes sur divers sujets dont l'hygiène dentaire.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né d'un pharmacien à Grandvilliers, Marie Louis Victor Galippe a étudié à l'École Supérieure de Pharmacie et est devenu pharmacien avant de poursuivre des études de médecine. Il a démontré en expérimentant sur lui-même que le sulfate de cuivre n'était pas aussi toxique qu'on le pensait. Il a ensuite fait des études en bactériologie et s'est spécialisé en santé dentaire[1],[2]. 
-Parmi ses autres études, Galippe a examiné les bactéries présentes dans diverses parties des plantes alimentaires cultivées. Il a essayé de cultiver des légumes avec des eaux usées, puis a coupé les parties des plantes au-dessus du sol et les a testées aux bactéries en les cultivant. Galippe a découvert que les bactéries présentes dans les eaux usées pénétraient tous les tissus végétaux à l'exception de l'ail[3],[4],[5]. Galippe a également examiné des micro-organismes conservés dans de l'ambre fossile[6],[7].
-Galippe a récupéré des bactéries à partir de calculs biliaires et a émis l'hypothèse qu'elles étaient produites par des bactéries. Cette théorie de la causalité bactérienne des calculs biliaires a cependant peu de soutien, bien que des bactéries viables aient été trouvées dans les calculs, même dans des études ultérieures[8],[9] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né d'un pharmacien à Grandvilliers, Marie Louis Victor Galippe a étudié à l'École Supérieure de Pharmacie et est devenu pharmacien avant de poursuivre des études de médecine. Il a démontré en expérimentant sur lui-même que le sulfate de cuivre n'était pas aussi toxique qu'on le pensait. Il a ensuite fait des études en bactériologie et s'est spécialisé en santé dentaire,. 
+Parmi ses autres études, Galippe a examiné les bactéries présentes dans diverses parties des plantes alimentaires cultivées. Il a essayé de cultiver des légumes avec des eaux usées, puis a coupé les parties des plantes au-dessus du sol et les a testées aux bactéries en les cultivant. Galippe a découvert que les bactéries présentes dans les eaux usées pénétraient tous les tissus végétaux à l'exception de l'ail. Galippe a également examiné des micro-organismes conservés dans de l'ambre fossile,.
+Galippe a récupéré des bactéries à partir de calculs biliaires et a émis l'hypothèse qu'elles étaient produites par des bactéries. Cette théorie de la causalité bactérienne des calculs biliaires a cependant peu de soutien, bien que des bactéries viables aient été trouvées dans les calculs, même dans des études ultérieures, 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude toxicologique sur le cuivre et ses composés, Paris, Masson, 1875 Lire en ligne.
 Note sur la présence du cuivre dans l'extrait de quinquina, Paris, Davy, 1882 Lire en ligne sur Gallica.
